--- a/Sales_Data.xlsx
+++ b/Sales_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tosca_Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ad8ad6e6c226e3b/Desktop/AE1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B25E8-E771-4A86-A91A-DE04D2147E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6C9B25E8-E771-4A86-A91A-DE04D2147E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6775EC0-AF4E-4DBA-8C72-A0427201742C}"/>
   <bookViews>
-    <workbookView xWindow="-22764" yWindow="360" windowWidth="21600" windowHeight="11328" xr2:uid="{3DC3FC2C-D8F9-4FDF-81F4-764BF7EB6BB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3DC3FC2C-D8F9-4FDF-81F4-764BF7EB6BB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Employee_Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -623,21 +624,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954EDA7E-314F-4E55-9FC1-ABB1A56EDE1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A31A0E6-9C33-441F-8334-6D2AA8D8A9D9}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -672,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -709,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -746,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -783,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -820,7 +833,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1182,15 +1195,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PackagePrice xmlns="d9113f88-25d8-4cb9-b50c-94566420fa65">0</PackagePrice>
@@ -1214,14 +1218,51 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2C20DA-FE62-409F-BFDB-221E6FD512DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2C20DA-FE62-409F-BFDB-221E6FD512DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="351096fc-af59-430a-b0eb-2d2c8e11a03e"/>
+    <ds:schemaRef ds:uri="d9113f88-25d8-4cb9-b50c-94566420fa65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E355BFC9-C9BD-43FF-A893-B6036BDD982B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4FA615-A575-461F-BE01-244518248962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d9113f88-25d8-4cb9-b50c-94566420fa65"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="351096fc-af59-430a-b0eb-2d2c8e11a03e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4FA615-A575-461F-BE01-244518248962}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E355BFC9-C9BD-43FF-A893-B6036BDD982B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>